--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
@@ -85,10 +85,10 @@
     <t>safe</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
   </si>
   <si>
     <t>care</t>
@@ -1007,25 +1007,25 @@
         <v>23</v>
       </c>
       <c r="K12">
-        <v>0.6810344827586207</v>
+        <v>0.6777777777777778</v>
       </c>
       <c r="L12">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="M12">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="N12">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O12">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>74</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1033,25 +1033,25 @@
         <v>24</v>
       </c>
       <c r="K13">
-        <v>0.6777777777777778</v>
+        <v>0.6610878661087866</v>
       </c>
       <c r="L13">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="M13">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="N13">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1111,25 +1111,25 @@
         <v>27</v>
       </c>
       <c r="K16">
-        <v>0.5749235474006116</v>
+        <v>0.5529411764705883</v>
       </c>
       <c r="L16">
         <v>188</v>
       </c>
       <c r="M16">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="N16">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="10:17">
